--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.22140000000001</v>
+        <v>-22.37400000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>5.421599999999997</v>
+        <v>5.7159</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.29070000000001</v>
+        <v>-22.44620000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.91520000000001</v>
+        <v>-13.7578</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -527,13 +527,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.83139999999998</v>
+        <v>-20.07949999999997</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.79480000000001</v>
+        <v>-12.52300000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -541,13 +541,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.09670000000001</v>
+        <v>-21.87499999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>5.004899999999997</v>
+        <v>6.956400000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.87219999999999</v>
+        <v>-13.35149999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.804100000000002</v>
+        <v>5.274300000000003</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.6287</v>
+        <v>-13.5648</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.973199999999997</v>
+        <v>5.026799999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-14.0399</v>
+        <v>-13.82199999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.4608</v>
+        <v>-14.48589999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -653,13 +653,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.93040000000001</v>
+        <v>-21.5768</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.0334</v>
+        <v>-12.39710000000001</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.2495</v>
+        <v>5.740499999999995</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.197299999999996</v>
+        <v>5.986599999999997</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.2224</v>
+        <v>9.426099999999996</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.51080000000001</v>
+        <v>-22.37970000000002</v>
       </c>
       <c r="B20" t="n">
-        <v>5.242099999999996</v>
+        <v>5.027099999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.75959999999998</v>
+        <v>-19.65549999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.921100000000002</v>
+        <v>4.160900000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0011</v>
+        <v>-21.93699999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.35319999999997</v>
+        <v>-21.37539999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-22.53580000000001</v>
+        <v>-22.43720000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-14.4636</v>
+        <v>-14.1597</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.180799999999995</v>
+        <v>4.255899999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.25860000000002</v>
+        <v>-21.23560000000002</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.4854</v>
+        <v>-12.8643</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.601800000000004</v>
+        <v>9.564800000000005</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.74949999999999</v>
+        <v>-21.34699999999997</v>
       </c>
       <c r="B40" t="n">
-        <v>5.484800000000003</v>
+        <v>6.031999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.59549999999999</v>
+        <v>-12.4739</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.647099999999988</v>
+        <v>9.44169999999999</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.433599999999991</v>
+        <v>9.326499999999992</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.452900000000005</v>
+        <v>6.342000000000009</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.46599999999999</v>
+        <v>-13.4949</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6427</v>
+        <v>-21.6064</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.7315</v>
+        <v>5.728900000000005</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.205500000000003</v>
+        <v>5.257700000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.7682</v>
+        <v>-21.76169999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.094</v>
+        <v>-22.2054</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.957899999999997</v>
+        <v>4.726599999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.06490000000002</v>
+        <v>-21.89200000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.21440000000001</v>
+        <v>-22.18600000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.18120000000002</v>
+        <v>-22.18380000000002</v>
       </c>
       <c r="B62" t="n">
-        <v>5.115799999999999</v>
+        <v>5.200300000000001</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.856899999999997</v>
+        <v>4.877799999999997</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.330900000000002</v>
+        <v>5.4262</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.4847</v>
+        <v>-21.46550000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1415,7 +1415,7 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.3801</v>
+        <v>-12.1941</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.39569999999999</v>
+        <v>-20.47929999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.56669999999998</v>
+        <v>-21.57989999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.634599999999995</v>
+        <v>6.254100000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.80449999999998</v>
+        <v>-19.82759999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.320000000000006</v>
+        <v>5.514800000000005</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.412000000000003</v>
+        <v>5.839600000000003</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1678,10 +1678,10 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.091800000000001</v>
+        <v>5.388399999999998</v>
       </c>
       <c r="C89" t="n">
-        <v>-14.21039999999999</v>
+        <v>-14.01489999999999</v>
       </c>
       <c r="D89" t="n">
         <v>-8.140000000000001</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.498</v>
+        <v>-12.67010000000001</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.5645</v>
+        <v>-21.57320000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.2309</v>
+        <v>-10.44499999999999</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.89009999999999</v>
+        <v>4.699599999999993</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1807,7 +1807,7 @@
         <v>5.8</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.1763</v>
+        <v>-12.4092</v>
       </c>
       <c r="D98" t="n">
         <v>-8.529999999999999</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.02310000000002</v>
+        <v>-22.04940000000002</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
